--- a/DataFolder/ExcelFiles/Product groups/Бытовая техника/Сушильные шкафы.xlsx
+++ b/DataFolder/ExcelFiles/Product groups/Бытовая техника/Сушильные шкафы.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\smeg\Desktop\Excel для SiteWrok\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Python\Projects\SiteWork\DataFolder\ExcelFiles\Product groups\Бытовая техника\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -66,9 +66,6 @@
     <t>Сушильный шкаф Asko DC7573 W</t>
   </si>
   <si>
-    <t>DC7573 W</t>
-  </si>
-  <si>
     <t>белый</t>
   </si>
   <si>
@@ -84,15 +81,9 @@
     <t>Сушильный шкаф Asko DC7583 W</t>
   </si>
   <si>
-    <t>DC7583 W</t>
-  </si>
-  <si>
     <t>Сушильный шкаф Asko DC7583 S</t>
   </si>
   <si>
-    <t>DC7583 S</t>
-  </si>
-  <si>
     <t>серебристый</t>
   </si>
   <si>
@@ -106,6 +97,15 @@
   </si>
   <si>
     <t>A</t>
+  </si>
+  <si>
+    <t>DC7573W</t>
+  </si>
+  <si>
+    <t>DC7583W</t>
+  </si>
+  <si>
+    <t>DC7583S</t>
   </si>
 </sst>
 </file>
@@ -1133,7 +1133,7 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>14</v>
@@ -1142,107 +1142,107 @@
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
       <c r="F2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I2" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="J2" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="M2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="L2" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="M2" s="4" t="s">
+      <c r="N2" s="4" t="s">
         <v>17</v>
-      </c>
-      <c r="N2" s="4" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I3" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="J3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="M3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="H3" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="M3" s="2" t="s">
+      <c r="N3" s="2" t="s">
         <v>17</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I4" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="G4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>28</v>
-      </c>
       <c r="J4" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="K4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L4" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="L4" s="2" t="s">
-        <v>19</v>
-      </c>
       <c r="M4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="N4" s="2" t="s">
         <v>17</v>
-      </c>
-      <c r="N4" s="2" t="s">
-        <v>18</v>
       </c>
     </row>
   </sheetData>
